--- a/1.基本設計書/3.画面レイアウト/1-3-2_レイアウト_メインメニュー.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-2_レイアウト_メインメニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A9492-1427-4540-868F-8F370AD4E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E89094-6F96-4654-8A94-90F7B75B1529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="0" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="180" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>メインメニュー</t>
   </si>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>修正日</t>
-  </si>
-  <si>
-    <t>デバックモード　さん</t>
-  </si>
-  <si>
-    <t>会員情報編集画面へようこそ</t>
-  </si>
-  <si>
-    <t>会員情報登録</t>
-  </si>
-  <si>
-    <t>会員情報一覧表示</t>
   </si>
   <si>
     <t>画面レイアウト</t>
@@ -345,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,9 +354,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -393,6 +378,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,30 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,6 +513,374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19612</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>75723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDE62AE-9DD7-4910-AA5F-4F798E63B898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2311797" y="883046"/>
+          <a:ext cx="4117346" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報編集画面へようこそ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19844</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B4B06F-3CC3-4A0E-8CE9-172853631604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2351484" y="635001"/>
+          <a:ext cx="1379141" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>デバックモード さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168671</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>168671</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6AD8B8-FA48-4DA1-A058-7A92B245F1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867421" y="1557734"/>
+          <a:ext cx="1349375" cy="446484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>99219</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C6A0C-0576-4AD4-ADFE-CA744181E0AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375547" y="1557734"/>
+          <a:ext cx="1349375" cy="446484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報一覧表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>188515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>109139</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534C3B63-925F-4EF6-84A8-F17DCFD1AFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248671" y="674688"/>
+          <a:ext cx="823515" cy="228203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,7 +1183,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="O31" sqref="O31:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1119,28 +1457,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -1150,26 +1488,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="24"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1179,26 +1517,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1208,28 +1546,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="20" t="s">
-        <v>17</v>
+      <c r="H13" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1239,26 +1577,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="24"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1268,26 +1606,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1501,28 +1839,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26" t="s">
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
@@ -1534,24 +1872,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="33"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
@@ -1563,28 +1901,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="26" t="s">
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -1596,24 +1934,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="33"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -1625,28 +1963,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1658,24 +1996,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="33"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1687,28 +2025,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="32">
-        <v>44525</v>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="34">
+        <v>44526</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="34"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1720,24 +2058,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="37"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="39"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -1749,28 +2087,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="26" t="s">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="30"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1782,24 +2120,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="33"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -1811,28 +2149,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="32">
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="34">
         <v>44508</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="34"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="36"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -1844,24 +2182,24 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="37"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="39"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
@@ -1895,7 +2233,7 @@
   <dimension ref="A1:AX57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1909,133 +2247,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="42" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43" t="str">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45" t="str">
         <f>表紙!O25</f>
         <v>メインメニュー</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="59" t="s">
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="46" t="s">
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="50"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="44" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="58">
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="52">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="59" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="58">
-        <v>44525</v>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="52">
+        <v>44526</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="48"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="50"/>
     </row>
     <row r="3" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -2091,31 +2429,29 @@
     </row>
     <row r="4" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -2145,19 +2481,19 @@
     </row>
     <row r="5" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2197,42 +2533,40 @@
     </row>
     <row r="6" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
@@ -2251,40 +2585,40 @@
     </row>
     <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
@@ -2303,19 +2637,19 @@
     </row>
     <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -2355,19 +2689,19 @@
     </row>
     <row r="9" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2407,41 +2741,37 @@
     </row>
     <row r="10" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="52"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
@@ -2463,37 +2793,37 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="55"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
@@ -3762,316 +4092,316 @@
       <c r="AX35" s="3"/>
     </row>
     <row r="36" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
-      <c r="AX36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
     </row>
     <row r="37" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="9"/>
-      <c r="AO37" s="9"/>
-      <c r="AP37" s="9"/>
-      <c r="AQ37" s="9"/>
-      <c r="AR37" s="9"/>
-      <c r="AS37" s="9"/>
-      <c r="AT37" s="9"/>
-      <c r="AU37" s="9"/>
-      <c r="AV37" s="9"/>
-      <c r="AW37" s="9"/>
-      <c r="AX37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="12"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="12"/>
-      <c r="AP38" s="12"/>
-      <c r="AQ38" s="12"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="12"/>
-      <c r="AW38" s="12"/>
-      <c r="AX38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
     </row>
     <row r="39" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="12"/>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="12"/>
-      <c r="AW39" s="12"/>
-      <c r="AX39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
     </row>
     <row r="40" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
-      <c r="AK40" s="9"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="12"/>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="12"/>
-      <c r="AR40" s="12"/>
-      <c r="AS40" s="12"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="12"/>
-      <c r="AX40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
     </row>
     <row r="41" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AJ41" s="12"/>
-      <c r="AK41" s="12"/>
-      <c r="AL41" s="12"/>
-      <c r="AM41" s="12"/>
-      <c r="AN41" s="12"/>
-      <c r="AO41" s="12"/>
-      <c r="AP41" s="12"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="12"/>
-      <c r="AS41" s="12"/>
-      <c r="AT41" s="12"/>
-      <c r="AU41" s="12"/>
-      <c r="AV41" s="12"/>
-      <c r="AW41" s="12"/>
-      <c r="AX41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
     </row>
     <row r="42" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4090,11 +4420,7 @@
     <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="O6:AI7"/>
-    <mergeCell ref="P10:W11"/>
-    <mergeCell ref="Y10:AF11"/>
-    <mergeCell ref="O4:X4"/>
+  <mergeCells count="13">
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -4112,5 +4438,6 @@
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>